--- a/natmiOut/OldD2/LR-pairs_lrc2p/Wnt9a-Fzd4.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Wnt9a-Fzd4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,15 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>Neutro</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -85,13 +94,10 @@
     <t>Fzd4</t>
   </si>
   <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>Neutro</t>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -449,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G2">
-        <v>1.24777998462429</v>
+        <v>0.3658375</v>
       </c>
       <c r="H2">
-        <v>1.24777998462429</v>
+        <v>0.731675</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.1005676763042391</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.08632853560586781</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>33.4780344832873</v>
+        <v>33.6320075</v>
       </c>
       <c r="N2">
-        <v>33.4780344832873</v>
+        <v>67.264015</v>
       </c>
       <c r="O2">
-        <v>0.4043414839346897</v>
+        <v>0.3908110491225105</v>
       </c>
       <c r="P2">
-        <v>0.4043414839346897</v>
+        <v>0.3281482467916435</v>
       </c>
       <c r="Q2">
-        <v>41.77322135280768</v>
+        <v>12.30384954378125</v>
       </c>
       <c r="R2">
-        <v>41.77322135280768</v>
+        <v>49.215398175125</v>
       </c>
       <c r="S2">
-        <v>0.4043414839346897</v>
+        <v>0.03930295908427272</v>
       </c>
       <c r="T2">
-        <v>0.4043414839346897</v>
+        <v>0.02832855760715549</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" t="s">
         <v>21</v>
       </c>
-      <c r="C3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" t="s">
-        <v>24</v>
-      </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G3">
-        <v>1.24777998462429</v>
+        <v>0.3658375</v>
       </c>
       <c r="H3">
-        <v>1.24777998462429</v>
+        <v>0.731675</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.1005676763042391</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.08632853560586781</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>11.1766780937579</v>
+        <v>12.015213</v>
       </c>
       <c r="N3">
-        <v>11.1766780937579</v>
+        <v>36.045639</v>
       </c>
       <c r="O3">
-        <v>0.1349898426129662</v>
+        <v>0.1396193194224409</v>
       </c>
       <c r="P3">
-        <v>0.1349898426129662</v>
+        <v>0.1758490515669409</v>
       </c>
       <c r="Q3">
-        <v>13.94603521997987</v>
+        <v>4.3956154858875</v>
       </c>
       <c r="R3">
-        <v>13.94603521997987</v>
+        <v>26.373692915325</v>
       </c>
       <c r="S3">
-        <v>0.1349898426129662</v>
+        <v>0.0140411905214942</v>
       </c>
       <c r="T3">
-        <v>0.1349898426129662</v>
+        <v>0.01518079110945475</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G4">
-        <v>1.24777998462429</v>
+        <v>0.3658375</v>
       </c>
       <c r="H4">
-        <v>1.24777998462429</v>
+        <v>0.731675</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.1005676763042391</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.08632853560586781</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>19.8206143669879</v>
+        <v>0.122567</v>
       </c>
       <c r="N4">
-        <v>19.8206143669879</v>
+        <v>0.367701</v>
       </c>
       <c r="O4">
-        <v>0.2393896998238043</v>
+        <v>0.001424254495001488</v>
       </c>
       <c r="P4">
-        <v>0.2393896998238043</v>
+        <v>0.001793833426290924</v>
       </c>
       <c r="Q4">
-        <v>24.73176589008414</v>
+        <v>0.04483960486249999</v>
       </c>
       <c r="R4">
-        <v>24.73176589008414</v>
+        <v>0.269037629175</v>
       </c>
       <c r="S4">
-        <v>0.2393896998238043</v>
+        <v>0.0001432339650281671</v>
       </c>
       <c r="T4">
-        <v>0.2393896998238043</v>
+        <v>0.0001548590128125519</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +714,1301 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>0.5</v>
+      </c>
+      <c r="G5">
+        <v>0.3658375</v>
+      </c>
+      <c r="H5">
+        <v>0.731675</v>
+      </c>
+      <c r="I5">
+        <v>0.1005676763042391</v>
+      </c>
+      <c r="J5">
+        <v>0.08632853560586781</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M5">
+        <v>0.1323796666666667</v>
+      </c>
+      <c r="N5">
+        <v>0.397139</v>
+      </c>
+      <c r="O5">
+        <v>0.001538279759615546</v>
+      </c>
+      <c r="P5">
+        <v>0.001937447037358482</v>
+      </c>
+      <c r="Q5">
+        <v>0.04842944630416667</v>
+      </c>
+      <c r="R5">
+        <v>0.290576677825</v>
+      </c>
+      <c r="S5">
+        <v>0.000154701220930379</v>
+      </c>
+      <c r="T5">
+        <v>0.0001672569655490848</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>0.5</v>
+      </c>
+      <c r="G6">
+        <v>0.3658375</v>
+      </c>
+      <c r="H6">
+        <v>0.731675</v>
+      </c>
+      <c r="I6">
+        <v>0.1005676763042391</v>
+      </c>
+      <c r="J6">
+        <v>0.08632853560586781</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>20.59650833333334</v>
+      </c>
+      <c r="N6">
+        <v>61.789525</v>
+      </c>
+      <c r="O6">
+        <v>0.2393357883858265</v>
+      </c>
+      <c r="P6">
+        <v>0.3014408863169769</v>
+      </c>
+      <c r="Q6">
+        <v>7.534975117395834</v>
+      </c>
+      <c r="R6">
+        <v>45.209850704375</v>
+      </c>
+      <c r="S6">
+        <v>0.02406944409440567</v>
+      </c>
+      <c r="T6">
+        <v>0.02602295028747949</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0.5</v>
+      </c>
+      <c r="G7">
+        <v>0.3658375</v>
+      </c>
+      <c r="H7">
+        <v>0.731675</v>
+      </c>
+      <c r="I7">
+        <v>0.1005676763042391</v>
+      </c>
+      <c r="J7">
+        <v>0.08632853560586781</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>19.558276</v>
+      </c>
+      <c r="N7">
+        <v>39.116552</v>
+      </c>
+      <c r="O7">
+        <v>0.2272713088146052</v>
+      </c>
+      <c r="P7">
+        <v>0.1908305348607893</v>
+      </c>
+      <c r="Q7">
+        <v>7.155150796149999</v>
+      </c>
+      <c r="R7">
+        <v>28.6206031846</v>
+      </c>
+      <c r="S7">
+        <v>0.02285614741810798</v>
+      </c>
+      <c r="T7">
+        <v>0.01647412062341645</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
         <v>21</v>
       </c>
-      <c r="C5" t="s">
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G8">
+        <v>0.4344463333333333</v>
+      </c>
+      <c r="H8">
+        <v>1.303339</v>
+      </c>
+      <c r="I8">
+        <v>0.1194280472128479</v>
+      </c>
+      <c r="J8">
+        <v>0.1537777664509737</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>33.6320075</v>
+      </c>
+      <c r="N8">
+        <v>67.264015</v>
+      </c>
+      <c r="O8">
+        <v>0.3908110491225105</v>
+      </c>
+      <c r="P8">
+        <v>0.3281482467916435</v>
+      </c>
+      <c r="Q8">
+        <v>14.61130234101417</v>
+      </c>
+      <c r="R8">
+        <v>87.667814046085</v>
+      </c>
+      <c r="S8">
+        <v>0.04667380042590578</v>
+      </c>
+      <c r="T8">
+        <v>0.05046190445642182</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G9">
+        <v>0.4344463333333333</v>
+      </c>
+      <c r="H9">
+        <v>1.303339</v>
+      </c>
+      <c r="I9">
+        <v>0.1194280472128479</v>
+      </c>
+      <c r="J9">
+        <v>0.1537777664509737</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>12.015213</v>
+      </c>
+      <c r="N9">
+        <v>36.045639</v>
+      </c>
+      <c r="O9">
+        <v>0.1396193194224409</v>
+      </c>
+      <c r="P9">
+        <v>0.1758490515669409</v>
+      </c>
+      <c r="Q9">
+        <v>5.219965232069001</v>
+      </c>
+      <c r="R9">
+        <v>46.97968708862101</v>
+      </c>
+      <c r="S9">
+        <v>0.01667446267180895</v>
+      </c>
+      <c r="T9">
+        <v>0.02704167438248627</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G10">
+        <v>0.4344463333333333</v>
+      </c>
+      <c r="H10">
+        <v>1.303339</v>
+      </c>
+      <c r="I10">
+        <v>0.1194280472128479</v>
+      </c>
+      <c r="J10">
+        <v>0.1537777664509737</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M10">
+        <v>0.122567</v>
+      </c>
+      <c r="N10">
+        <v>0.367701</v>
+      </c>
+      <c r="O10">
+        <v>0.001424254495001488</v>
+      </c>
+      <c r="P10">
+        <v>0.001793833426290924</v>
+      </c>
+      <c r="Q10">
+        <v>0.05324878373766666</v>
+      </c>
+      <c r="R10">
+        <v>0.479239053639</v>
+      </c>
+      <c r="S10">
+        <v>0.0001700959330721484</v>
+      </c>
+      <c r="T10">
+        <v>0.0002758516976801156</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G11">
+        <v>0.4344463333333333</v>
+      </c>
+      <c r="H11">
+        <v>1.303339</v>
+      </c>
+      <c r="I11">
+        <v>0.1194280472128479</v>
+      </c>
+      <c r="J11">
+        <v>0.1537777664509737</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M11">
+        <v>0.1323796666666667</v>
+      </c>
+      <c r="N11">
+        <v>0.397139</v>
+      </c>
+      <c r="O11">
+        <v>0.001538279759615546</v>
+      </c>
+      <c r="P11">
+        <v>0.001937447037358482</v>
+      </c>
+      <c r="Q11">
+        <v>0.05751186079122222</v>
+      </c>
+      <c r="R11">
+        <v>0.5176067471210001</v>
+      </c>
+      <c r="S11">
+        <v>0.0001837137477579337</v>
+      </c>
+      <c r="T11">
+        <v>0.0002979362780220435</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
         <v>22</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G12">
+        <v>0.4344463333333333</v>
+      </c>
+      <c r="H12">
+        <v>1.303339</v>
+      </c>
+      <c r="I12">
+        <v>0.1194280472128479</v>
+      </c>
+      <c r="J12">
+        <v>0.1537777664509737</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>20.59650833333334</v>
+      </c>
+      <c r="N12">
+        <v>61.789525</v>
+      </c>
+      <c r="O12">
+        <v>0.2393357883858265</v>
+      </c>
+      <c r="P12">
+        <v>0.3014408863169769</v>
+      </c>
+      <c r="Q12">
+        <v>8.948077524886113</v>
+      </c>
+      <c r="R12">
+        <v>80.53269772397501</v>
+      </c>
+      <c r="S12">
+        <v>0.02858340583506665</v>
+      </c>
+      <c r="T12">
+        <v>0.04635490621482657</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.4344463333333333</v>
+      </c>
+      <c r="H13">
+        <v>1.303339</v>
+      </c>
+      <c r="I13">
+        <v>0.1194280472128479</v>
+      </c>
+      <c r="J13">
+        <v>0.1537777664509737</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>19.558276</v>
+      </c>
+      <c r="N13">
+        <v>39.116552</v>
+      </c>
+      <c r="O13">
+        <v>0.2272713088146052</v>
+      </c>
+      <c r="P13">
+        <v>0.1908305348607893</v>
+      </c>
+      <c r="Q13">
+        <v>8.497021294521334</v>
+      </c>
+      <c r="R13">
+        <v>50.982127767128</v>
+      </c>
+      <c r="S13">
+        <v>0.02714256859923639</v>
+      </c>
+      <c r="T13">
+        <v>0.02934549342153685</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
         <v>20</v>
       </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>1.24777998462429</v>
-      </c>
-      <c r="H5">
-        <v>1.24777998462429</v>
-      </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
-      <c r="J5">
-        <v>1</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>18.3211107538974</v>
-      </c>
-      <c r="N5">
-        <v>18.3211107538974</v>
-      </c>
-      <c r="O5">
-        <v>0.2212789736285398</v>
-      </c>
-      <c r="P5">
-        <v>0.2212789736285398</v>
-      </c>
-      <c r="Q5">
-        <v>22.86071529479801</v>
-      </c>
-      <c r="R5">
-        <v>22.86071529479801</v>
-      </c>
-      <c r="S5">
-        <v>0.2212789736285398</v>
-      </c>
-      <c r="T5">
-        <v>0.2212789736285398</v>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G14">
+        <v>0.7655756666666665</v>
+      </c>
+      <c r="H14">
+        <v>2.296727</v>
+      </c>
+      <c r="I14">
+        <v>0.2104545483492954</v>
+      </c>
+      <c r="J14">
+        <v>0.270985175927096</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>33.6320075</v>
+      </c>
+      <c r="N14">
+        <v>67.264015</v>
+      </c>
+      <c r="O14">
+        <v>0.3908110491225105</v>
+      </c>
+      <c r="P14">
+        <v>0.3281482467916435</v>
+      </c>
+      <c r="Q14">
+        <v>25.74784656315083</v>
+      </c>
+      <c r="R14">
+        <v>154.487079378905</v>
+      </c>
+      <c r="S14">
+        <v>0.08224796283299225</v>
+      </c>
+      <c r="T14">
+        <v>0.08892331038700162</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G15">
+        <v>0.7655756666666665</v>
+      </c>
+      <c r="H15">
+        <v>2.296727</v>
+      </c>
+      <c r="I15">
+        <v>0.2104545483492954</v>
+      </c>
+      <c r="J15">
+        <v>0.270985175927096</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>12.015213</v>
+      </c>
+      <c r="N15">
+        <v>36.045639</v>
+      </c>
+      <c r="O15">
+        <v>0.1396193194224409</v>
+      </c>
+      <c r="P15">
+        <v>0.1758490515669409</v>
+      </c>
+      <c r="Q15">
+        <v>9.198554702616999</v>
+      </c>
+      <c r="R15">
+        <v>82.78699232355299</v>
+      </c>
+      <c r="S15">
+        <v>0.0293835208098858</v>
+      </c>
+      <c r="T15">
+        <v>0.04765248617548046</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>0.7655756666666665</v>
+      </c>
+      <c r="H16">
+        <v>2.296727</v>
+      </c>
+      <c r="I16">
+        <v>0.2104545483492954</v>
+      </c>
+      <c r="J16">
+        <v>0.270985175927096</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M16">
+        <v>0.122567</v>
+      </c>
+      <c r="N16">
+        <v>0.367701</v>
+      </c>
+      <c r="O16">
+        <v>0.001424254495001488</v>
+      </c>
+      <c r="P16">
+        <v>0.001793833426290924</v>
+      </c>
+      <c r="Q16">
+        <v>0.09383431273633332</v>
+      </c>
+      <c r="R16">
+        <v>0.8445088146269999</v>
+      </c>
+      <c r="S16">
+        <v>0.0002997408364799919</v>
+      </c>
+      <c r="T16">
+        <v>0.0004861022666073514</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G17">
+        <v>0.7655756666666665</v>
+      </c>
+      <c r="H17">
+        <v>2.296727</v>
+      </c>
+      <c r="I17">
+        <v>0.2104545483492954</v>
+      </c>
+      <c r="J17">
+        <v>0.270985175927096</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M17">
+        <v>0.1323796666666667</v>
+      </c>
+      <c r="N17">
+        <v>0.397139</v>
+      </c>
+      <c r="O17">
+        <v>0.001538279759615546</v>
+      </c>
+      <c r="P17">
+        <v>0.001937447037358482</v>
+      </c>
+      <c r="Q17">
+        <v>0.1013466515614444</v>
+      </c>
+      <c r="R17">
+        <v>0.9121198640529999</v>
+      </c>
+      <c r="S17">
+        <v>0.0003237379720447525</v>
+      </c>
+      <c r="T17">
+        <v>0.0005250194262680192</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G18">
+        <v>0.7655756666666665</v>
+      </c>
+      <c r="H18">
+        <v>2.296727</v>
+      </c>
+      <c r="I18">
+        <v>0.2104545483492954</v>
+      </c>
+      <c r="J18">
+        <v>0.270985175927096</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>20.59650833333334</v>
+      </c>
+      <c r="N18">
+        <v>61.789525</v>
+      </c>
+      <c r="O18">
+        <v>0.2393357883858265</v>
+      </c>
+      <c r="P18">
+        <v>0.3014408863169769</v>
+      </c>
+      <c r="Q18">
+        <v>15.76818559829722</v>
+      </c>
+      <c r="R18">
+        <v>141.913670384675</v>
+      </c>
+      <c r="S18">
+        <v>0.05036930524856167</v>
+      </c>
+      <c r="T18">
+        <v>0.08168601161022571</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G19">
+        <v>0.7655756666666665</v>
+      </c>
+      <c r="H19">
+        <v>2.296727</v>
+      </c>
+      <c r="I19">
+        <v>0.2104545483492954</v>
+      </c>
+      <c r="J19">
+        <v>0.270985175927096</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>19.558276</v>
+      </c>
+      <c r="N19">
+        <v>39.116552</v>
+      </c>
+      <c r="O19">
+        <v>0.2272713088146052</v>
+      </c>
+      <c r="P19">
+        <v>0.1908305348607893</v>
+      </c>
+      <c r="Q19">
+        <v>14.97334018755066</v>
+      </c>
+      <c r="R19">
+        <v>89.84004112530398</v>
+      </c>
+      <c r="S19">
+        <v>0.04783028064933098</v>
+      </c>
+      <c r="T19">
+        <v>0.05171224606151282</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>2.071865</v>
+      </c>
+      <c r="H20">
+        <v>4.14373</v>
+      </c>
+      <c r="I20">
+        <v>0.5695497281336176</v>
+      </c>
+      <c r="J20">
+        <v>0.4889085220160626</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>33.6320075</v>
+      </c>
+      <c r="N20">
+        <v>67.264015</v>
+      </c>
+      <c r="O20">
+        <v>0.3908110491225105</v>
+      </c>
+      <c r="P20">
+        <v>0.3281482467916435</v>
+      </c>
+      <c r="Q20">
+        <v>69.68097921898749</v>
+      </c>
+      <c r="R20">
+        <v>278.72391687595</v>
+      </c>
+      <c r="S20">
+        <v>0.2225863267793397</v>
+      </c>
+      <c r="T20">
+        <v>0.1604344743410646</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>2.071865</v>
+      </c>
+      <c r="H21">
+        <v>4.14373</v>
+      </c>
+      <c r="I21">
+        <v>0.5695497281336176</v>
+      </c>
+      <c r="J21">
+        <v>0.4889085220160626</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>12.015213</v>
+      </c>
+      <c r="N21">
+        <v>36.045639</v>
+      </c>
+      <c r="O21">
+        <v>0.1396193194224409</v>
+      </c>
+      <c r="P21">
+        <v>0.1758490515669409</v>
+      </c>
+      <c r="Q21">
+        <v>24.893899282245</v>
+      </c>
+      <c r="R21">
+        <v>149.36339569347</v>
+      </c>
+      <c r="S21">
+        <v>0.0795201454192519</v>
+      </c>
+      <c r="T21">
+        <v>0.08597409989951947</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" t="s">
+        <v>26</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>2.071865</v>
+      </c>
+      <c r="H22">
+        <v>4.14373</v>
+      </c>
+      <c r="I22">
+        <v>0.5695497281336176</v>
+      </c>
+      <c r="J22">
+        <v>0.4889085220160626</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M22">
+        <v>0.122567</v>
+      </c>
+      <c r="N22">
+        <v>0.367701</v>
+      </c>
+      <c r="O22">
+        <v>0.001424254495001488</v>
+      </c>
+      <c r="P22">
+        <v>0.001793833426290924</v>
+      </c>
+      <c r="Q22">
+        <v>0.253942277455</v>
+      </c>
+      <c r="R22">
+        <v>1.52365366473</v>
+      </c>
+      <c r="S22">
+        <v>0.0008111837604211801</v>
+      </c>
+      <c r="T22">
+        <v>0.0008770204491909052</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" t="s">
+        <v>27</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>2.071865</v>
+      </c>
+      <c r="H23">
+        <v>4.14373</v>
+      </c>
+      <c r="I23">
+        <v>0.5695497281336176</v>
+      </c>
+      <c r="J23">
+        <v>0.4889085220160626</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="L23">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M23">
+        <v>0.1323796666666667</v>
+      </c>
+      <c r="N23">
+        <v>0.397139</v>
+      </c>
+      <c r="O23">
+        <v>0.001538279759615546</v>
+      </c>
+      <c r="P23">
+        <v>0.001937447037358482</v>
+      </c>
+      <c r="Q23">
+        <v>0.2742727980783333</v>
+      </c>
+      <c r="R23">
+        <v>1.64563678847</v>
+      </c>
+      <c r="S23">
+        <v>0.0008761268188824808</v>
+      </c>
+      <c r="T23">
+        <v>0.0009472343675193349</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>2.071865</v>
+      </c>
+      <c r="H24">
+        <v>4.14373</v>
+      </c>
+      <c r="I24">
+        <v>0.5695497281336176</v>
+      </c>
+      <c r="J24">
+        <v>0.4889085220160626</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>20.59650833333334</v>
+      </c>
+      <c r="N24">
+        <v>61.789525</v>
+      </c>
+      <c r="O24">
+        <v>0.2393357883858265</v>
+      </c>
+      <c r="P24">
+        <v>0.3014408863169769</v>
+      </c>
+      <c r="Q24">
+        <v>42.67318473804167</v>
+      </c>
+      <c r="R24">
+        <v>256.03910842825</v>
+      </c>
+      <c r="S24">
+        <v>0.1363136332077925</v>
+      </c>
+      <c r="T24">
+        <v>0.1473770182044451</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>2.071865</v>
+      </c>
+      <c r="H25">
+        <v>4.14373</v>
+      </c>
+      <c r="I25">
+        <v>0.5695497281336176</v>
+      </c>
+      <c r="J25">
+        <v>0.4889085220160626</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>19.558276</v>
+      </c>
+      <c r="N25">
+        <v>39.116552</v>
+      </c>
+      <c r="O25">
+        <v>0.2272713088146052</v>
+      </c>
+      <c r="P25">
+        <v>0.1908305348607893</v>
+      </c>
+      <c r="Q25">
+        <v>40.52210750473999</v>
+      </c>
+      <c r="R25">
+        <v>162.08843001896</v>
+      </c>
+      <c r="S25">
+        <v>0.1294423121479298</v>
+      </c>
+      <c r="T25">
+        <v>0.09329867475432323</v>
       </c>
     </row>
   </sheetData>
